--- a/QLCV/file/old/DXCLAN-TASK-4.xlsx
+++ b/QLCV/file/old/DXCLAN-TASK-4.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136CB4A3-AE65-4C31-A48A-35DEC86DC6E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273FC66A-9B1D-47C2-B4DB-052E0963FCC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Danh sách công việc cá nhân</t>
   </si>
@@ -149,28 +149,31 @@
     <t>00:00:50</t>
   </si>
   <si>
-    <t>605801c554db3e16b95ffd88</t>
-  </si>
-  <si>
-    <t>Tesst- tạo công viêc</t>
-  </si>
-  <si>
-    <t>Cao</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
-    <t>Nguyễn Duy Thành</t>
-  </si>
-  <si>
-    <t>31-03-2021</t>
-  </si>
-  <si>
     <t>sonnc</t>
   </si>
   <si>
     <t>OPEN</t>
+  </si>
+  <si>
+    <t>605c419f478c5e7dc234804c</t>
+  </si>
+  <si>
+    <t>Test Mẫu do ưu tien trung bình</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>605c4176478c5e7dc2348048</t>
+  </si>
+  <si>
+    <t>Test Mẫu do ưu tien khẩn cấp</t>
+  </si>
+  <si>
+    <t>Khẩn cấp</t>
   </si>
 </sst>
 </file>
@@ -591,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,16 +710,16 @@
         <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>28</v>
@@ -728,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>32</v>
@@ -763,16 +766,16 @@
         <v>27</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>38</v>
@@ -793,15 +796,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
@@ -810,42 +813,100 @@
         <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="T6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
